--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841840_GBR_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841840_GBR_all.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE173"/>
+  <dimension ref="A1:AE174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15709,6 +15709,9 @@
       <c r="A168">
         <v>2713</v>
       </c>
+      <c r="B168">
+        <v>1481</v>
+      </c>
       <c r="C168">
         <v>1236</v>
       </c>
@@ -15828,6 +15831,9 @@
       <c r="K169">
         <v>2036</v>
       </c>
+      <c r="L169">
+        <v>1481</v>
+      </c>
       <c r="M169">
         <v>1813</v>
       </c>
@@ -15890,11 +15896,14 @@
       <c r="A170">
         <v>1726</v>
       </c>
+      <c r="B170">
+        <v>1403</v>
+      </c>
       <c r="C170">
         <v>1256</v>
       </c>
       <c r="D170">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E170">
         <v>359</v>
@@ -15916,6 +15925,9 @@
       </c>
       <c r="K170">
         <v>1702</v>
+      </c>
+      <c r="M170">
+        <v>1481</v>
       </c>
       <c r="N170">
         <v>1813</v>
@@ -16003,6 +16015,12 @@
       <c r="K171">
         <v>2134</v>
       </c>
+      <c r="L171">
+        <v>1403</v>
+      </c>
+      <c r="N171">
+        <v>1481</v>
+      </c>
       <c r="O171">
         <v>2077</v>
       </c>
@@ -16025,7 +16043,7 @@
         <v>924</v>
       </c>
       <c r="V171">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="W171">
         <v>204</v>
@@ -16062,6 +16080,12 @@
       <c r="C172">
         <v>1285</v>
       </c>
+      <c r="D172">
+        <v>503</v>
+      </c>
+      <c r="E172">
+        <v>529</v>
+      </c>
       <c r="F172">
         <v>201805</v>
       </c>
@@ -16080,6 +16104,9 @@
       <c r="K172">
         <v>1942</v>
       </c>
+      <c r="M172">
+        <v>1403</v>
+      </c>
       <c r="O172">
         <v>1895</v>
       </c>
@@ -16105,7 +16132,7 @@
         <v>529</v>
       </c>
       <c r="W172">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="X172">
         <v>204</v>
@@ -16136,6 +16163,9 @@
       <c r="A173">
         <v>2391</v>
       </c>
+      <c r="C173">
+        <v>1271</v>
+      </c>
       <c r="F173">
         <v>201806</v>
       </c>
@@ -16154,6 +16184,9 @@
       <c r="K173">
         <v>1948</v>
       </c>
+      <c r="N173">
+        <v>1403</v>
+      </c>
       <c r="O173">
         <v>1813</v>
       </c>
@@ -16175,11 +16208,14 @@
       <c r="U173">
         <v>2507</v>
       </c>
+      <c r="V173">
+        <v>503</v>
+      </c>
       <c r="W173">
         <v>529</v>
       </c>
       <c r="X173">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Y173">
         <v>475</v>
@@ -16187,6 +16223,9 @@
       <c r="Z173">
         <v>537</v>
       </c>
+      <c r="AA173">
+        <v>529</v>
+      </c>
       <c r="AB173">
         <v>395</v>
       </c>
@@ -16198,6 +16237,74 @@
       </c>
       <c r="AE173">
         <v>322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31">
+      <c r="A174">
+        <v>2518</v>
+      </c>
+      <c r="F174">
+        <v>201807</v>
+      </c>
+      <c r="G174">
+        <v>2391</v>
+      </c>
+      <c r="H174">
+        <v>2899</v>
+      </c>
+      <c r="I174">
+        <v>2689</v>
+      </c>
+      <c r="J174">
+        <v>2713</v>
+      </c>
+      <c r="K174">
+        <v>2030</v>
+      </c>
+      <c r="O174">
+        <v>1481</v>
+      </c>
+      <c r="P174">
+        <v>1761</v>
+      </c>
+      <c r="Q174">
+        <v>1271</v>
+      </c>
+      <c r="R174">
+        <v>1285</v>
+      </c>
+      <c r="S174">
+        <v>1203</v>
+      </c>
+      <c r="T174">
+        <v>1236</v>
+      </c>
+      <c r="U174">
+        <v>1170</v>
+      </c>
+      <c r="W174">
+        <v>503</v>
+      </c>
+      <c r="X174">
+        <v>529</v>
+      </c>
+      <c r="Y174">
+        <v>305</v>
+      </c>
+      <c r="Z174">
+        <v>339</v>
+      </c>
+      <c r="AB174">
+        <v>529</v>
+      </c>
+      <c r="AC174">
+        <v>395</v>
+      </c>
+      <c r="AD174">
+        <v>399</v>
+      </c>
+      <c r="AE174">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
